--- a/data_and_models/EF 2.0 impacts Hellisheidi and UDDGP.xlsx
+++ b/data_and_models/EF 2.0 impacts Hellisheidi and UDDGP.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Andrea\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AFFC65C4487DCF1217E2B952E86D8D03E7230B38" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{771EF5EA-9E15-460B-8E64-522B64F5284A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6600" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hellisheidi - Gabi" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,16 @@
     <sheet name="BW categories names" sheetId="4" r:id="rId4"/>
     <sheet name="Map categories" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -210,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,31 +557,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" customWidth="1"/>
+    <col min="5" max="5" width="35.7265625" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
         <v>2</v>
       </c>
@@ -582,7 +589,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -593,7 +600,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -607,7 +614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -622,7 +629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -630,7 +637,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -638,7 +645,7 @@
         <v>5.7900000000000002E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -646,7 +653,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -654,7 +661,7 @@
         <v>1.32E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -662,7 +669,7 @@
         <v>4.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -670,7 +677,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -678,7 +685,7 @@
         <v>3.2899999999999997E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -686,7 +693,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -694,7 +701,7 @@
         <v>1.7800000000000001E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>15</v>
       </c>
@@ -702,7 +709,7 @@
         <v>9.0900000000000009E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -710,7 +717,7 @@
         <v>8.05E-8</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -718,7 +725,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -726,7 +733,7 @@
         <v>1.6899999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -734,7 +741,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -748,25 +755,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -795,7 +803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -827,7 +835,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -859,7 +867,7 @@
         <v>5.7900000000000002E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -891,7 +899,7 @@
         <v>3.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -923,7 +931,7 @@
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -955,7 +963,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -987,7 +995,7 @@
         <v>7.7200000000000006E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -1019,7 +1027,7 @@
         <v>2.32E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>7.8899999999999993E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -1147,7 +1155,7 @@
         <v>1.6999999999999999E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1187,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>14</v>
       </c>
@@ -1211,7 +1219,7 @@
         <v>3.5499999999999999E-9</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>1.06E-3</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>16</v>
       </c>
@@ -1275,7 +1283,7 @@
         <v>3.48E-9</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1315,7 @@
         <v>5.3800000000000002E-6</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>6.8600000000000004E-6</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1379,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>20</v>
       </c>
@@ -1409,22 +1417,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1477,7 @@
         <v>2.2100000000000001E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1486,7 +1494,7 @@
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1511,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>5.62E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1537,7 +1545,7 @@
         <v>2.3800000000000001E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>7.1400000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>6.1799999999999995E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1588,7 +1596,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1605,7 +1613,7 @@
         <v>2.4499999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1622,7 +1630,7 @@
         <v>4.1499999999999999E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>6.5100000000000005E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>1.09E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1673,7 +1681,7 @@
         <v>3.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1698,7 @@
         <v>8.8400000000000001E-9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1713,21 +1721,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.453125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="3">
         <v>0</v>
@@ -1739,7 +1747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1781,7 +1789,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1795,7 +1803,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1809,7 +1817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1837,7 +1845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1851,7 +1859,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1865,7 +1873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1893,7 +1901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1907,7 +1915,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1921,7 +1929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1949,7 +1957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1969,20 +1977,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1990,7 +1998,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D7</f>
         <v>EF 2.0 Climate Change [kg CO2 eq.]</v>
@@ -2000,7 +2008,7 @@
         <v>climate change total</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D13</f>
         <v>EF 2.0 Cancer human health effects [CTUh]</v>
@@ -2010,7 +2018,7 @@
         <v>carcinogenic effects</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D16</f>
         <v>EF 2.0 Ionising radiation - human health [kBq U235 eq.]</v>
@@ -2020,7 +2028,7 @@
         <v>ionising radiation</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D17</f>
         <v>EF 2.0 Non-cancer human health effects [CTUh]</v>
@@ -2030,7 +2038,7 @@
         <v>non-carcinogenic effects</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D15</f>
         <v>EF 2.0 Ozone depletion [kg CFC-11 eq.]</v>
@@ -2040,7 +2048,7 @@
         <v>ozone layer depletion</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D9</f>
         <v>EF 2.0 Photochemical ozone formation - human health [kg NMVOC eq.]</v>
@@ -2050,7 +2058,7 @@
         <v>photochemical ozone creation</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D8</f>
         <v>EF 2.0 Respiratory inorganics [Deaths]</v>
@@ -2060,7 +2068,7 @@
         <v>respiratory effects, inorganics</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D10</f>
         <v>EF 2.0 Acidification terrestrial and freshwater [Mole of H+ eq.]</v>
@@ -2070,7 +2078,7 @@
         <v>freshwater and terrestrial acidification</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D14</f>
         <v>EF 2.0 Ecotoxicity freshwater [CTUe]</v>
@@ -2080,7 +2088,7 @@
         <v>freshwater ecotoxicity</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D18</f>
         <v>EF 2.0 Eutrophication freshwater [kg P eq.]</v>
@@ -2090,7 +2098,7 @@
         <v>freshwater eutrophication</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D12</f>
         <v>EF 2.0 Eutrophication marine [kg N eq.]</v>
@@ -2100,7 +2108,7 @@
         <v>marine eutrophication</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D11</f>
         <v>EF 2.0 Eutrophication terrestrial [Mole of N eq.]</v>
@@ -2110,7 +2118,7 @@
         <v>terrestrial eutrophication</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D5</f>
         <v>EF 2.0 Water scarcity [m³ world equiv.]</v>
@@ -2120,7 +2128,7 @@
         <v>dissipated water</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="str">
         <f>'Hellisheidi - Gabi'!D3</f>
         <v>EF 2.0 Resource use, energy carriers [MJ]</v>
@@ -2130,7 +2138,7 @@
         <v>fossils</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D6</f>
         <v>EF 2.0 Land Use [Pt]</v>
@@ -2140,7 +2148,7 @@
         <v>land use</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D4</f>
         <v>EF 2.0 Resource use, mineral and metals [kg Sb eq.]</v>
@@ -2150,25 +2158,25 @@
         <v>minerals and metals</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E24" s="2"/>
     </row>
   </sheetData>

--- a/data_and_models/EF 2.0 impacts Hellisheidi and UDDGP.xlsx
+++ b/data_and_models/EF 2.0 impacts Hellisheidi and UDDGP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\data_and_models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucecapa_ucl_ac_uk/Documents/Projects/S4CE/GSA/Geothermal/data_and_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_AFFC65C4487DCF1217E2B952E86D8D03E7230B38" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{771EF5EA-9E15-460B-8E64-522B64F5284A}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_AFFC65C4487DCF1217E2B952E86D8D03E7230B38" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{47022AD3-E837-4A1D-8DE7-4A0684F414BF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hellisheidi - Gabi" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -270,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -278,6 +281,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,27 +567,27 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="37.54296875" customWidth="1"/>
-    <col min="5" max="5" width="35.7265625" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="37.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>2</v>
       </c>
@@ -589,7 +595,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>3</v>
       </c>
@@ -600,7 +606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>4</v>
       </c>
@@ -614,7 +620,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -629,7 +635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -637,7 +643,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>7</v>
       </c>
@@ -645,7 +651,7 @@
         <v>5.7900000000000002E-8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>8</v>
       </c>
@@ -653,7 +659,7 @@
         <v>1.23E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -661,7 +667,7 @@
         <v>1.32E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>10</v>
       </c>
@@ -669,7 +675,7 @@
         <v>4.1399999999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>11</v>
       </c>
@@ -677,7 +683,7 @@
         <v>4.0999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -685,7 +691,7 @@
         <v>3.2899999999999997E-8</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>13</v>
       </c>
@@ -693,7 +699,7 @@
         <v>0.75800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>14</v>
       </c>
@@ -701,7 +707,7 @@
         <v>1.7800000000000001E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>15</v>
       </c>
@@ -709,7 +715,7 @@
         <v>9.0900000000000009E-3</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>16</v>
       </c>
@@ -717,7 +723,7 @@
         <v>8.05E-8</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>17</v>
       </c>
@@ -725,7 +731,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>18</v>
       </c>
@@ -733,7 +739,7 @@
         <v>1.6899999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>19</v>
       </c>
@@ -741,7 +747,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>20</v>
       </c>
@@ -758,23 +764,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -803,7 +809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>2</v>
       </c>
@@ -835,7 +841,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -867,7 +873,7 @@
         <v>5.7900000000000002E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>4</v>
       </c>
@@ -899,7 +905,7 @@
         <v>3.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>5</v>
       </c>
@@ -931,7 +937,7 @@
         <v>6.6799999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -963,7 +969,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>7.7200000000000006E-9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>2.32E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>8.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>7.8899999999999993E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1161,7 @@
         <v>1.6999999999999999E-9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>13</v>
       </c>
@@ -1187,7 +1193,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>14</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>3.5499999999999999E-9</v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1257,7 @@
         <v>1.06E-3</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>16</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>3.48E-9</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v>5.3800000000000002E-6</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>6.8600000000000004E-6</v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -1379,7 +1385,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>20</v>
       </c>
@@ -1420,19 +1426,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="67" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1451,16 +1457,16 @@
         <f>VLOOKUP(A2,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>fossils</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f>'Hellisheidi - Gabi'!E3/'Hellisheidi - Gabi'!$J$6</f>
         <v>3.1977891827872085E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <f>'UDDGP - Gabi'!H4</f>
         <v>0.77800000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1468,16 +1474,16 @@
         <f>VLOOKUP(A3,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>minerals and metals</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <f>'Hellisheidi - Gabi'!E4/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.8476115278326096E-8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <f>'UDDGP - Gabi'!H5</f>
         <v>2.2100000000000001E-7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1485,16 +1491,16 @@
         <f>VLOOKUP(A4,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>dissipated water</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <f>'Hellisheidi - Gabi'!E5/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.1512041058033952E-3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <f>'UDDGP - Gabi'!H6</f>
         <v>1.78E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1502,16 +1508,16 @@
         <f>VLOOKUP(A5,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>land use</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <f>'Hellisheidi - Gabi'!E6/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.1284642716146862E-2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f>'UDDGP - Gabi'!H7</f>
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1519,16 +1525,16 @@
         <f>VLOOKUP(A6,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>climate change total</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <f>'Hellisheidi - Gabi'!E7/'Hellisheidi - Gabi'!$J$6</f>
         <v>2.4587445716541648E-2</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <f>'UDDGP - Gabi'!H8</f>
         <v>5.62E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1536,16 +1542,16 @@
         <f>VLOOKUP(A7,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>respiratory effects, inorganics</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <f>'Hellisheidi - Gabi'!E8/'Hellisheidi - Gabi'!$J$6</f>
         <v>8.2289774970390845E-10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <f>'UDDGP - Gabi'!H9</f>
         <v>2.3800000000000001E-8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1553,16 +1559,16 @@
         <f>VLOOKUP(A8,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>photochemical ozone creation</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <f>'Hellisheidi - Gabi'!E9/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.7481247532570075E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <f>'UDDGP - Gabi'!H10</f>
         <v>7.1400000000000001E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1570,16 +1576,16 @@
         <f>VLOOKUP(A9,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>freshwater and terrestrial acidification</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <f>'Hellisheidi - Gabi'!E10/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.8760363205684956E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <f>'UDDGP - Gabi'!H11</f>
         <v>6.1799999999999995E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1587,16 +1593,16 @@
         <f>VLOOKUP(A10,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>terrestrial eutrophication</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="5">
         <f>'Hellisheidi - Gabi'!E11/'Hellisheidi - Gabi'!$J$6</f>
         <v>5.8839320963284634E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <f>'UDDGP - Gabi'!H12</f>
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1604,16 +1610,16 @@
         <f>VLOOKUP(A11,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>marine eutrophication</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <f>'Hellisheidi - Gabi'!E12/'Hellisheidi - Gabi'!$J$6</f>
         <v>5.8270825108566916E-6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <f>'UDDGP - Gabi'!H13</f>
         <v>2.4499999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1621,16 +1627,16 @@
         <f>VLOOKUP(A12,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>carcinogenic effects</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <f>'Hellisheidi - Gabi'!E13/'Hellisheidi - Gabi'!$J$6</f>
         <v>4.6758784050532963E-10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <f>'UDDGP - Gabi'!H14</f>
         <v>4.1499999999999999E-9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1638,16 +1644,16 @@
         <f>VLOOKUP(A13,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>freshwater ecotoxicity</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="5">
         <f>'Hellisheidi - Gabi'!E14/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.0772996446900907E-2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <f>'UDDGP - Gabi'!H15</f>
         <v>6.5100000000000005E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1655,16 +1661,16 @@
         <f>VLOOKUP(A14,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>ozone layer depletion</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <f>'Hellisheidi - Gabi'!E15/'Hellisheidi - Gabi'!$J$6</f>
         <v>2.5298065534938807E-10</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <f>'UDDGP - Gabi'!H16</f>
         <v>1.09E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1672,16 +1678,16 @@
         <f>VLOOKUP(A15,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>ionising radiation</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="5">
         <f>'Hellisheidi - Gabi'!E16/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.2919068298460325E-4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <f>'UDDGP - Gabi'!H17</f>
         <v>3.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1689,16 +1695,16 @@
         <f>VLOOKUP(A16,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>non-carcinogenic effects</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <f>'Hellisheidi - Gabi'!E17/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.1440979076194236E-9</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <f>'UDDGP - Gabi'!H18</f>
         <v>8.8400000000000001E-9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1706,11 +1712,11 @@
         <f>VLOOKUP(A17,'Map categories'!$A$2:$B$17,2,FALSE)</f>
         <v>freshwater eutrophication</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <f>'Hellisheidi - Gabi'!E18/'Hellisheidi - Gabi'!$J$6</f>
         <v>1.4212396367943151E-6</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <f>'UDDGP - Gabi'!H19</f>
         <v>1.66E-5</v>
       </c>
@@ -1728,14 +1734,14 @@
       <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.453125" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="33.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="3">
         <v>0</v>
@@ -1747,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1761,7 +1767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1887,7 +1893,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1984,13 +1990,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D7</f>
         <v>EF 2.0 Climate Change [kg CO2 eq.]</v>
@@ -2008,7 +2014,7 @@
         <v>climate change total</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D13</f>
         <v>EF 2.0 Cancer human health effects [CTUh]</v>
@@ -2018,7 +2024,7 @@
         <v>carcinogenic effects</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D16</f>
         <v>EF 2.0 Ionising radiation - human health [kBq U235 eq.]</v>
@@ -2028,7 +2034,7 @@
         <v>ionising radiation</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D17</f>
         <v>EF 2.0 Non-cancer human health effects [CTUh]</v>
@@ -2038,7 +2044,7 @@
         <v>non-carcinogenic effects</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D15</f>
         <v>EF 2.0 Ozone depletion [kg CFC-11 eq.]</v>
@@ -2048,7 +2054,7 @@
         <v>ozone layer depletion</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D9</f>
         <v>EF 2.0 Photochemical ozone formation - human health [kg NMVOC eq.]</v>
@@ -2058,7 +2064,7 @@
         <v>photochemical ozone creation</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D8</f>
         <v>EF 2.0 Respiratory inorganics [Deaths]</v>
@@ -2068,7 +2074,7 @@
         <v>respiratory effects, inorganics</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D10</f>
         <v>EF 2.0 Acidification terrestrial and freshwater [Mole of H+ eq.]</v>
@@ -2078,7 +2084,7 @@
         <v>freshwater and terrestrial acidification</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D14</f>
         <v>EF 2.0 Ecotoxicity freshwater [CTUe]</v>
@@ -2088,7 +2094,7 @@
         <v>freshwater ecotoxicity</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D18</f>
         <v>EF 2.0 Eutrophication freshwater [kg P eq.]</v>
@@ -2098,7 +2104,7 @@
         <v>freshwater eutrophication</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D12</f>
         <v>EF 2.0 Eutrophication marine [kg N eq.]</v>
@@ -2108,7 +2114,7 @@
         <v>marine eutrophication</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D11</f>
         <v>EF 2.0 Eutrophication terrestrial [Mole of N eq.]</v>
@@ -2118,7 +2124,7 @@
         <v>terrestrial eutrophication</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D5</f>
         <v>EF 2.0 Water scarcity [m³ world equiv.]</v>
@@ -2128,7 +2134,7 @@
         <v>dissipated water</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>'Hellisheidi - Gabi'!D3</f>
         <v>EF 2.0 Resource use, energy carriers [MJ]</v>
@@ -2138,7 +2144,7 @@
         <v>fossils</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D6</f>
         <v>EF 2.0 Land Use [Pt]</v>
@@ -2148,7 +2154,7 @@
         <v>land use</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="str">
         <f>'Hellisheidi - Gabi'!D4</f>
         <v>EF 2.0 Resource use, mineral and metals [kg Sb eq.]</v>
@@ -2158,25 +2164,25 @@
         <v>minerals and metals</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
     </row>
   </sheetData>
